--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1767.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1767.xlsx
@@ -354,13 +354,13 @@
         <v>1.03152386654254</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1767.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1767.xlsx
@@ -348,10 +348,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6300865859026847</v>
+        <v>1.07510781288147</v>
       </c>
       <c r="B1">
-        <v>1.03152386654254</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>15</v>
